--- a/Example/TestTable/基础类型.xlsx
+++ b/Example/TestTable/基础类型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FlyFly\WorkSpace\ExcelToCode\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\ExcelToCode\Example\TestTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5DF4A0-85B5-4764-9B92-0D9FB5B4F4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D17E836-A6AB-43AD-96AC-8A5DA223166A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="3420" windowWidth="19005" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>#Class</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,58 @@
   </si>
   <si>
     <t xml:space="preserve">   false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X0FFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0XCCA00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0XCCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0XFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0XAF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0XFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0XFFFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0XFA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0XFFA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0XFFBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0XFFCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0XAF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,14 +282,14 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,36 +571,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.875" defaultRowHeight="25.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="13.875" style="3"/>
-    <col min="12" max="12" width="29.375" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="13.875" style="3"/>
+    <col min="1" max="1" width="13.875" style="2"/>
+    <col min="2" max="2" width="16.875" style="2" customWidth="1"/>
+    <col min="3" max="11" width="13.875" style="2"/>
+    <col min="12" max="12" width="29.375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="13.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -592,37 +646,37 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -630,8 +684,8 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -639,23 +693,23 @@
       <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1">
-        <v>123</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>-128</v>
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>15</v>
@@ -733,6 +787,41 @@
         <v>15</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -742,6 +831,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>